--- a/data/星恒哲萌1号净值20241224.xlsx
+++ b/data/星恒哲萌1号净值20241224.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E189"/>
+  <dimension ref="A1:E190"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,432 +399,432 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2024-12-13</v>
+        <v>2024-12-20</v>
       </c>
       <c r="B2" t="str">
-        <v>1.1115</v>
+        <v>1.1133</v>
       </c>
       <c r="C2" t="str">
-        <v>1.5748</v>
+        <v>1.5766</v>
       </c>
       <c r="D2" t="str">
-        <v>1.6861</v>
+        <v>1.6888</v>
       </c>
       <c r="E2" t="str">
-        <v>-0.12%</v>
+        <v>0.16%</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2024-12-06</v>
+        <v>2024-12-13</v>
       </c>
       <c r="B3" t="str">
-        <v>1.1128</v>
+        <v>1.1115</v>
       </c>
       <c r="C3" t="str">
-        <v>1.5761</v>
+        <v>1.5748</v>
       </c>
       <c r="D3" t="str">
-        <v>1.6880</v>
+        <v>1.6861</v>
       </c>
       <c r="E3" t="str">
-        <v>0.32%</v>
+        <v>-0.12%</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2024-11-29</v>
+        <v>2024-12-06</v>
       </c>
       <c r="B4" t="str">
-        <v>1.1093</v>
+        <v>1.1128</v>
       </c>
       <c r="C4" t="str">
-        <v>1.5726</v>
+        <v>1.5761</v>
       </c>
       <c r="D4" t="str">
-        <v>1.6827</v>
+        <v>1.6880</v>
       </c>
       <c r="E4" t="str">
-        <v>0.04%</v>
+        <v>0.32%</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2024-11-22</v>
+        <v>2024-11-29</v>
       </c>
       <c r="B5" t="str">
-        <v>1.1089</v>
+        <v>1.1093</v>
       </c>
       <c r="C5" t="str">
-        <v>1.5722</v>
+        <v>1.5726</v>
       </c>
       <c r="D5" t="str">
-        <v>1.6821</v>
+        <v>1.6827</v>
       </c>
       <c r="E5" t="str">
-        <v>0.15%</v>
+        <v>0.04%</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2024-11-15</v>
+        <v>2024-11-22</v>
       </c>
       <c r="B6" t="str">
-        <v>1.1072</v>
+        <v>1.1089</v>
       </c>
       <c r="C6" t="str">
-        <v>1.5705</v>
+        <v>1.5722</v>
       </c>
       <c r="D6" t="str">
-        <v>1.6795</v>
+        <v>1.6821</v>
       </c>
       <c r="E6" t="str">
-        <v>0.05%</v>
+        <v>0.15%</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2024-11-08</v>
+        <v>2024-11-15</v>
       </c>
       <c r="B7" t="str">
-        <v>1.1066</v>
+        <v>1.1072</v>
       </c>
       <c r="C7" t="str">
-        <v>1.5699</v>
+        <v>1.5705</v>
       </c>
       <c r="D7" t="str">
-        <v>1.6786</v>
+        <v>1.6795</v>
       </c>
       <c r="E7" t="str">
-        <v>0.84%</v>
+        <v>0.05%</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2024-11-01</v>
+        <v>2024-11-08</v>
       </c>
       <c r="B8" t="str">
-        <v>1.0974</v>
+        <v>1.1066</v>
       </c>
       <c r="C8" t="str">
-        <v>1.5607</v>
+        <v>1.5699</v>
       </c>
       <c r="D8" t="str">
-        <v>1.6647</v>
+        <v>1.6786</v>
       </c>
       <c r="E8" t="str">
-        <v>0.21%</v>
+        <v>0.84%</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2024-10-25</v>
+        <v>2024-11-01</v>
       </c>
       <c r="B9" t="str">
-        <v>1.0951</v>
+        <v>1.0974</v>
       </c>
       <c r="C9" t="str">
-        <v>1.5584</v>
+        <v>1.5607</v>
       </c>
       <c r="D9" t="str">
-        <v>1.6612</v>
+        <v>1.6647</v>
       </c>
       <c r="E9" t="str">
-        <v>-0.53%</v>
+        <v>0.21%</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2024-10-18</v>
+        <v>2024-10-25</v>
       </c>
       <c r="B10" t="str">
-        <v>1.1009</v>
+        <v>1.0951</v>
       </c>
       <c r="C10" t="str">
-        <v>1.5642</v>
+        <v>1.5584</v>
       </c>
       <c r="D10" t="str">
-        <v>1.6700</v>
+        <v>1.6612</v>
       </c>
       <c r="E10" t="str">
-        <v>0.57%</v>
+        <v>-0.53%</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2024-10-11</v>
+        <v>2024-10-18</v>
       </c>
       <c r="B11" t="str">
-        <v>1.0947</v>
+        <v>1.1009</v>
       </c>
       <c r="C11" t="str">
-        <v>1.5580</v>
+        <v>1.5642</v>
       </c>
       <c r="D11" t="str">
-        <v>1.6606</v>
+        <v>1.6700</v>
       </c>
       <c r="E11" t="str">
-        <v>1.21%</v>
+        <v>0.57%</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2024-09-30</v>
+        <v>2024-10-11</v>
       </c>
       <c r="B12" t="str">
-        <v>1.0816</v>
+        <v>1.0947</v>
       </c>
       <c r="C12" t="str">
-        <v>1.5449</v>
+        <v>1.5580</v>
       </c>
       <c r="D12" t="str">
-        <v>1.6407</v>
+        <v>1.6606</v>
       </c>
       <c r="E12" t="str">
-        <v>0.06%</v>
+        <v>1.21%</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2024-09-27</v>
+        <v>2024-09-30</v>
       </c>
       <c r="B13" t="str">
-        <v>1.0810</v>
+        <v>1.0816</v>
       </c>
       <c r="C13" t="str">
-        <v>1.5443</v>
+        <v>1.5449</v>
       </c>
       <c r="D13" t="str">
-        <v>1.6398</v>
+        <v>1.6407</v>
       </c>
       <c r="E13" t="str">
-        <v>-0.73%</v>
+        <v>0.06%</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2024-09-20</v>
+        <v>2024-09-27</v>
       </c>
       <c r="B14" t="str">
-        <v>1.0890</v>
+        <v>1.0810</v>
       </c>
       <c r="C14" t="str">
-        <v>1.5523</v>
+        <v>1.5443</v>
       </c>
       <c r="D14" t="str">
-        <v>1.6519</v>
+        <v>1.6398</v>
       </c>
       <c r="E14" t="str">
-        <v>0.32%</v>
+        <v>-0.73%</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2024-09-13</v>
+        <v>2024-09-20</v>
       </c>
       <c r="B15" t="str">
-        <v>1.0855</v>
+        <v>1.0890</v>
       </c>
       <c r="C15" t="str">
-        <v>1.5488</v>
+        <v>1.5523</v>
       </c>
       <c r="D15" t="str">
-        <v>1.6466</v>
+        <v>1.6519</v>
       </c>
       <c r="E15" t="str">
-        <v>0.66%</v>
+        <v>0.32%</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2024-09-06</v>
+        <v>2024-09-13</v>
       </c>
       <c r="B16" t="str">
-        <v>1.0784</v>
+        <v>1.0855</v>
       </c>
       <c r="C16" t="str">
-        <v>1.5417</v>
+        <v>1.5488</v>
       </c>
       <c r="D16" t="str">
-        <v>1.6359</v>
+        <v>1.6466</v>
       </c>
       <c r="E16" t="str">
-        <v>1.30%</v>
+        <v>0.66%</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2024-08-30</v>
+        <v>2024-09-06</v>
       </c>
       <c r="B17" t="str">
-        <v>1.0646</v>
+        <v>1.0784</v>
       </c>
       <c r="C17" t="str">
-        <v>1.5279</v>
+        <v>1.5417</v>
       </c>
       <c r="D17" t="str">
-        <v>1.6149</v>
+        <v>1.6359</v>
       </c>
       <c r="E17" t="str">
-        <v>-0.36%</v>
+        <v>1.30%</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2024-08-23</v>
+        <v>2024-08-30</v>
       </c>
       <c r="B18" t="str">
-        <v>1.0685</v>
+        <v>1.0646</v>
       </c>
       <c r="C18" t="str">
-        <v>1.5318</v>
+        <v>1.5279</v>
       </c>
       <c r="D18" t="str">
-        <v>1.6208</v>
+        <v>1.6149</v>
       </c>
       <c r="E18" t="str">
-        <v>0.63%</v>
+        <v>-0.36%</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2024-08-16</v>
+        <v>2024-08-23</v>
       </c>
       <c r="B19" t="str">
-        <v>1.0618</v>
+        <v>1.0685</v>
       </c>
       <c r="C19" t="str">
-        <v>1.5251</v>
+        <v>1.5318</v>
       </c>
       <c r="D19" t="str">
-        <v>1.6107</v>
+        <v>1.6208</v>
       </c>
       <c r="E19" t="str">
-        <v>0.47%</v>
+        <v>0.63%</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2024-08-09</v>
+        <v>2024-08-16</v>
       </c>
       <c r="B20" t="str">
-        <v>1.0568</v>
+        <v>1.0618</v>
       </c>
       <c r="C20" t="str">
-        <v>1.5201</v>
+        <v>1.5251</v>
       </c>
       <c r="D20" t="str">
-        <v>1.6031</v>
+        <v>1.6107</v>
       </c>
       <c r="E20" t="str">
-        <v>0.34%</v>
+        <v>0.47%</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2024-08-02</v>
+        <v>2024-08-09</v>
       </c>
       <c r="B21" t="str">
-        <v>1.0532</v>
+        <v>1.0568</v>
       </c>
       <c r="C21" t="str">
-        <v>1.5165</v>
+        <v>1.5201</v>
       </c>
       <c r="D21" t="str">
-        <v>1.5976</v>
+        <v>1.6031</v>
       </c>
       <c r="E21" t="str">
-        <v>0.15%</v>
+        <v>0.34%</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2024-07-26</v>
+        <v>2024-08-02</v>
       </c>
       <c r="B22" t="str">
-        <v>1.0516</v>
+        <v>1.0532</v>
       </c>
       <c r="C22" t="str">
-        <v>1.5149</v>
+        <v>1.5165</v>
       </c>
       <c r="D22" t="str">
-        <v>1.5952</v>
+        <v>1.5976</v>
       </c>
       <c r="E22" t="str">
-        <v>0.02%</v>
+        <v>0.15%</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2024-07-19</v>
+        <v>2024-07-26</v>
       </c>
       <c r="B23" t="str">
-        <v>1.0514</v>
+        <v>1.0516</v>
       </c>
       <c r="C23" t="str">
-        <v>1.5147</v>
+        <v>1.5149</v>
       </c>
       <c r="D23" t="str">
-        <v>1.5949</v>
+        <v>1.5952</v>
       </c>
       <c r="E23" t="str">
-        <v>-0.12%</v>
+        <v>0.02%</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2024-07-12</v>
+        <v>2024-07-19</v>
       </c>
       <c r="B24" t="str">
-        <v>1.0527</v>
+        <v>1.0514</v>
       </c>
       <c r="C24" t="str">
-        <v>1.5160</v>
+        <v>1.5147</v>
       </c>
       <c r="D24" t="str">
-        <v>1.5969</v>
+        <v>1.5949</v>
       </c>
       <c r="E24" t="str">
-        <v>0.25%</v>
+        <v>-0.12%</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2024-07-05</v>
+        <v>2024-07-12</v>
       </c>
       <c r="B25" t="str">
-        <v>1.0501</v>
+        <v>1.0527</v>
       </c>
       <c r="C25" t="str">
-        <v>1.5134</v>
+        <v>1.5160</v>
       </c>
       <c r="D25" t="str">
-        <v>1.5929</v>
+        <v>1.5969</v>
       </c>
       <c r="E25" t="str">
-        <v>0.14%</v>
+        <v>0.25%</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2024-06-28</v>
+        <v>2024-07-05</v>
       </c>
       <c r="B26" t="str">
-        <v>1.0486</v>
+        <v>1.0501</v>
       </c>
       <c r="C26" t="str">
-        <v>1.5119</v>
+        <v>1.5134</v>
       </c>
       <c r="D26" t="str">
-        <v>1.5906</v>
+        <v>1.5929</v>
       </c>
       <c r="E26" t="str">
-        <v>0.00%</v>
+        <v>0.14%</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2024-06-21</v>
+        <v>2024-06-28</v>
       </c>
       <c r="B27" t="str">
         <v>1.0486</v>
@@ -836,2749 +836,2749 @@
         <v>1.5906</v>
       </c>
       <c r="E27" t="str">
-        <v>-0.28%</v>
+        <v>0.00%</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2024-06-14</v>
+        <v>2024-06-21</v>
       </c>
       <c r="B28" t="str">
-        <v>1.0515</v>
+        <v>1.0486</v>
       </c>
       <c r="C28" t="str">
-        <v>1.5148</v>
+        <v>1.5119</v>
       </c>
       <c r="D28" t="str">
-        <v>1.5950</v>
+        <v>1.5906</v>
       </c>
       <c r="E28" t="str">
-        <v>-0.82%</v>
+        <v>-0.28%</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2024-06-07</v>
+        <v>2024-06-14</v>
       </c>
       <c r="B29" t="str">
-        <v>1.0602</v>
+        <v>1.0515</v>
       </c>
       <c r="C29" t="str">
-        <v>1.5235</v>
+        <v>1.5148</v>
       </c>
       <c r="D29" t="str">
-        <v>1.6082</v>
+        <v>1.5950</v>
       </c>
       <c r="E29" t="str">
-        <v>-0.15%</v>
+        <v>-0.82%</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2024-05-31</v>
+        <v>2024-06-07</v>
       </c>
       <c r="B30" t="str">
-        <v>1.0618</v>
+        <v>1.0602</v>
       </c>
       <c r="C30" t="str">
-        <v>1.5251</v>
+        <v>1.5235</v>
       </c>
       <c r="D30" t="str">
-        <v>1.6107</v>
+        <v>1.6082</v>
       </c>
       <c r="E30" t="str">
-        <v>-0.16%</v>
+        <v>-0.15%</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2024-05-24</v>
+        <v>2024-05-31</v>
       </c>
       <c r="B31" t="str">
-        <v>1.0635</v>
+        <v>1.0618</v>
       </c>
       <c r="C31" t="str">
-        <v>1.5268</v>
+        <v>1.5251</v>
       </c>
       <c r="D31" t="str">
-        <v>1.6132</v>
+        <v>1.6107</v>
       </c>
       <c r="E31" t="str">
-        <v>-0.08%</v>
+        <v>-0.16%</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2024-05-17</v>
+        <v>2024-05-24</v>
       </c>
       <c r="B32" t="str">
-        <v>1.0643</v>
+        <v>1.0635</v>
       </c>
       <c r="C32" t="str">
-        <v>1.5276</v>
+        <v>1.5268</v>
       </c>
       <c r="D32" t="str">
-        <v>1.6145</v>
+        <v>1.6132</v>
       </c>
       <c r="E32" t="str">
-        <v>0.85%</v>
+        <v>-0.08%</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2024-05-10</v>
+        <v>2024-05-17</v>
       </c>
       <c r="B33" t="str">
-        <v>1.0553</v>
+        <v>1.0643</v>
       </c>
       <c r="C33" t="str">
-        <v>1.5186</v>
+        <v>1.5276</v>
       </c>
       <c r="D33" t="str">
-        <v>1.6008</v>
+        <v>1.6145</v>
       </c>
       <c r="E33" t="str">
-        <v>-0.55%</v>
+        <v>0.85%</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2024-04-30</v>
+        <v>2024-05-10</v>
       </c>
       <c r="B34" t="str">
-        <v>1.0611</v>
+        <v>1.0553</v>
       </c>
       <c r="C34" t="str">
-        <v>1.5244</v>
+        <v>1.5186</v>
       </c>
       <c r="D34" t="str">
-        <v>1.6096</v>
+        <v>1.6008</v>
       </c>
       <c r="E34" t="str">
-        <v>0.10%</v>
+        <v>-0.55%</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2024-04-26</v>
+        <v>2024-04-30</v>
       </c>
       <c r="B35" t="str">
-        <v>1.0600</v>
+        <v>1.0611</v>
       </c>
       <c r="C35" t="str">
-        <v>1.5233</v>
+        <v>1.5244</v>
       </c>
       <c r="D35" t="str">
-        <v>1.6079</v>
+        <v>1.6096</v>
       </c>
       <c r="E35" t="str">
-        <v>1.14%</v>
+        <v>0.10%</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2024-04-19</v>
+        <v>2024-04-26</v>
       </c>
       <c r="B36" t="str">
-        <v>1.0481</v>
+        <v>1.0600</v>
       </c>
       <c r="C36" t="str">
-        <v>1.5114</v>
+        <v>1.5233</v>
       </c>
       <c r="D36" t="str">
-        <v>1.5899</v>
+        <v>1.6079</v>
       </c>
       <c r="E36" t="str">
-        <v>1.70%</v>
+        <v>1.14%</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2024-04-12</v>
+        <v>2024-04-19</v>
       </c>
       <c r="B37" t="str">
-        <v>1.0306</v>
+        <v>1.0481</v>
       </c>
       <c r="C37" t="str">
-        <v>1.4939</v>
+        <v>1.5114</v>
       </c>
       <c r="D37" t="str">
-        <v>1.5633</v>
+        <v>1.5899</v>
       </c>
       <c r="E37" t="str">
-        <v>0.06%</v>
+        <v>1.70%</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2024-04-03</v>
+        <v>2024-04-12</v>
       </c>
       <c r="B38" t="str">
-        <v>1.0300</v>
+        <v>1.0306</v>
       </c>
       <c r="C38" t="str">
-        <v>1.4933</v>
+        <v>1.4939</v>
       </c>
       <c r="D38" t="str">
-        <v>1.5624</v>
+        <v>1.5633</v>
       </c>
       <c r="E38" t="str">
-        <v>-0.16%</v>
+        <v>0.06%</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2024-03-29</v>
+        <v>2024-04-03</v>
       </c>
       <c r="B39" t="str">
-        <v>1.0316</v>
+        <v>1.0300</v>
       </c>
       <c r="C39" t="str">
-        <v>1.4949</v>
+        <v>1.4933</v>
       </c>
       <c r="D39" t="str">
-        <v>1.5649</v>
+        <v>1.5624</v>
       </c>
       <c r="E39" t="str">
-        <v>1.12%</v>
+        <v>-0.16%</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2024-03-22</v>
+        <v>2024-03-29</v>
       </c>
       <c r="B40" t="str">
-        <v>1.0202</v>
+        <v>1.0316</v>
       </c>
       <c r="C40" t="str">
-        <v>1.4835</v>
+        <v>1.4949</v>
       </c>
       <c r="D40" t="str">
-        <v>1.5476</v>
+        <v>1.5649</v>
       </c>
       <c r="E40" t="str">
-        <v>0.17%</v>
+        <v>1.12%</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2024-03-15</v>
+        <v>2024-03-22</v>
       </c>
       <c r="B41" t="str">
-        <v>1.0185</v>
+        <v>1.0202</v>
       </c>
       <c r="C41" t="str">
-        <v>1.4818</v>
+        <v>1.4835</v>
       </c>
       <c r="D41" t="str">
-        <v>1.5450</v>
+        <v>1.5476</v>
       </c>
       <c r="E41" t="str">
-        <v>0.44%</v>
+        <v>0.17%</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2024-03-08</v>
+        <v>2024-03-15</v>
       </c>
       <c r="B42" t="str">
-        <v>1.0140</v>
+        <v>1.0185</v>
       </c>
       <c r="C42" t="str">
-        <v>1.4773</v>
+        <v>1.4818</v>
       </c>
       <c r="D42" t="str">
-        <v>1.5382</v>
+        <v>1.5450</v>
       </c>
       <c r="E42" t="str">
-        <v>1.29%</v>
+        <v>0.44%</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2024-03-01</v>
+        <v>2024-03-08</v>
       </c>
       <c r="B43" t="str">
-        <v>1.0011</v>
+        <v>1.0140</v>
       </c>
       <c r="C43" t="str">
-        <v>1.4644</v>
+        <v>1.4773</v>
       </c>
       <c r="D43" t="str">
-        <v>1.5186</v>
+        <v>1.5382</v>
       </c>
       <c r="E43" t="str">
-        <v>-0.03%</v>
+        <v>1.29%</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2024-02-23</v>
+        <v>2024-03-01</v>
       </c>
       <c r="B44" t="str">
-        <v>1.0014</v>
+        <v>1.0011</v>
       </c>
       <c r="C44" t="str">
-        <v>1.4647</v>
+        <v>1.4644</v>
       </c>
       <c r="D44" t="str">
-        <v>1.5190</v>
+        <v>1.5186</v>
       </c>
       <c r="E44" t="str">
-        <v>0.46%</v>
+        <v>-0.03%</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2024-02-08</v>
+        <v>2024-02-23</v>
       </c>
       <c r="B45" t="str">
-        <v>0.9968</v>
+        <v>1.0014</v>
       </c>
       <c r="C45" t="str">
-        <v>1.4601</v>
+        <v>1.4647</v>
       </c>
       <c r="D45" t="str">
-        <v>1.5121</v>
+        <v>1.5190</v>
       </c>
       <c r="E45" t="str">
-        <v>-0.15%</v>
+        <v>0.46%</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2024-02-02</v>
+        <v>2024-02-08</v>
       </c>
       <c r="B46" t="str">
-        <v>0.9983</v>
+        <v>0.9968</v>
       </c>
       <c r="C46" t="str">
-        <v>1.4616</v>
+        <v>1.4601</v>
       </c>
       <c r="D46" t="str">
-        <v>1.5143</v>
+        <v>1.5121</v>
       </c>
       <c r="E46" t="str">
-        <v>1.41%</v>
+        <v>-0.15%</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2024-01-26</v>
+        <v>2024-02-02</v>
       </c>
       <c r="B47" t="str">
-        <v>0.9844</v>
+        <v>0.9983</v>
       </c>
       <c r="C47" t="str">
-        <v>1.4477</v>
+        <v>1.4616</v>
       </c>
       <c r="D47" t="str">
-        <v>1.4933</v>
+        <v>1.5143</v>
       </c>
       <c r="E47" t="str">
-        <v>-0.21%</v>
+        <v>1.41%</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2024-01-19</v>
+        <v>2024-01-26</v>
       </c>
       <c r="B48" t="str">
-        <v>0.9865</v>
+        <v>0.9844</v>
       </c>
       <c r="C48" t="str">
-        <v>1.4498</v>
+        <v>1.4477</v>
       </c>
       <c r="D48" t="str">
-        <v>1.4964</v>
+        <v>1.4933</v>
       </c>
       <c r="E48" t="str">
-        <v>-1.02%</v>
+        <v>-0.21%</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2024-01-12</v>
+        <v>2024-01-19</v>
       </c>
       <c r="B49" t="str">
-        <v>0.9967</v>
+        <v>0.9865</v>
       </c>
       <c r="C49" t="str">
-        <v>1.4600</v>
+        <v>1.4498</v>
       </c>
       <c r="D49" t="str">
-        <v>1.5119</v>
+        <v>1.4964</v>
       </c>
       <c r="E49" t="str">
-        <v>-0.39%</v>
+        <v>-1.02%</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2024-01-05</v>
+        <v>2024-01-12</v>
       </c>
       <c r="B50" t="str">
-        <v>1.2385</v>
+        <v>0.9967</v>
       </c>
       <c r="C50" t="str">
-        <v>1.4641</v>
+        <v>1.4600</v>
       </c>
       <c r="D50" t="str">
-        <v>1.5179</v>
+        <v>1.5119</v>
       </c>
       <c r="E50" t="str">
-        <v>0.63%</v>
+        <v>-0.39%</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-12-29</v>
+        <v>2024-01-05</v>
       </c>
       <c r="B51" t="str">
-        <v>1.2307</v>
+        <v>1.2385</v>
       </c>
       <c r="C51" t="str">
-        <v>1.4563</v>
+        <v>1.4641</v>
       </c>
       <c r="D51" t="str">
-        <v>1.5083</v>
+        <v>1.5179</v>
       </c>
       <c r="E51" t="str">
-        <v>-0.45%</v>
+        <v>0.63%</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-12-22</v>
+        <v>2023-12-29</v>
       </c>
       <c r="B52" t="str">
-        <v>1.2363</v>
+        <v>1.2307</v>
       </c>
       <c r="C52" t="str">
-        <v>1.4619</v>
+        <v>1.4563</v>
       </c>
       <c r="D52" t="str">
-        <v>1.5152</v>
+        <v>1.5083</v>
       </c>
       <c r="E52" t="str">
-        <v>-0.04%</v>
+        <v>-0.45%</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-12-15</v>
+        <v>2023-12-22</v>
       </c>
       <c r="B53" t="str">
-        <v>1.2368</v>
+        <v>1.2363</v>
       </c>
       <c r="C53" t="str">
-        <v>1.4624</v>
+        <v>1.4619</v>
       </c>
       <c r="D53" t="str">
-        <v>1.5158</v>
+        <v>1.5152</v>
       </c>
       <c r="E53" t="str">
-        <v>2.30%</v>
+        <v>-0.04%</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-12-08</v>
+        <v>2023-12-15</v>
       </c>
       <c r="B54" t="str">
-        <v>1.2090</v>
+        <v>1.2368</v>
       </c>
       <c r="C54" t="str">
-        <v>1.4346</v>
+        <v>1.4624</v>
       </c>
       <c r="D54" t="str">
-        <v>1.4818</v>
+        <v>1.5158</v>
       </c>
       <c r="E54" t="str">
-        <v>0.18%</v>
+        <v>2.30%</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-12-01</v>
+        <v>2023-12-08</v>
       </c>
       <c r="B55" t="str">
-        <v>1.2068</v>
+        <v>1.2090</v>
       </c>
       <c r="C55" t="str">
-        <v>1.4324</v>
+        <v>1.4346</v>
       </c>
       <c r="D55" t="str">
-        <v>1.4791</v>
+        <v>1.4818</v>
       </c>
       <c r="E55" t="str">
-        <v>-0.31%</v>
+        <v>0.18%</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-11-24</v>
+        <v>2023-12-01</v>
       </c>
       <c r="B56" t="str">
-        <v>1.2106</v>
+        <v>1.2068</v>
       </c>
       <c r="C56" t="str">
-        <v>1.4362</v>
+        <v>1.4324</v>
       </c>
       <c r="D56" t="str">
-        <v>1.4837</v>
+        <v>1.4791</v>
       </c>
       <c r="E56" t="str">
-        <v>2.35%</v>
+        <v>-0.31%</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-11-17</v>
+        <v>2023-11-24</v>
       </c>
       <c r="B57" t="str">
-        <v>1.1828</v>
+        <v>1.2106</v>
       </c>
       <c r="C57" t="str">
-        <v>1.4084</v>
+        <v>1.4362</v>
       </c>
       <c r="D57" t="str">
-        <v>1.4496</v>
+        <v>1.4837</v>
       </c>
       <c r="E57" t="str">
-        <v>1.33%</v>
+        <v>2.35%</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-11-10</v>
+        <v>2023-11-17</v>
       </c>
       <c r="B58" t="str">
-        <v>1.1673</v>
+        <v>1.1828</v>
       </c>
       <c r="C58" t="str">
-        <v>1.3929</v>
+        <v>1.4084</v>
       </c>
       <c r="D58" t="str">
-        <v>1.4306</v>
+        <v>1.4496</v>
       </c>
       <c r="E58" t="str">
-        <v>-1.34%</v>
+        <v>1.33%</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-11-03</v>
+        <v>2023-11-10</v>
       </c>
       <c r="B59" t="str">
-        <v>1.1832</v>
+        <v>1.1673</v>
       </c>
       <c r="C59" t="str">
-        <v>1.4088</v>
+        <v>1.3929</v>
       </c>
       <c r="D59" t="str">
-        <v>1.4501</v>
+        <v>1.4306</v>
       </c>
       <c r="E59" t="str">
-        <v>-0.45%</v>
+        <v>-1.34%</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-10-27</v>
+        <v>2023-11-03</v>
       </c>
       <c r="B60" t="str">
-        <v>1.1885</v>
+        <v>1.1832</v>
       </c>
       <c r="C60" t="str">
-        <v>1.4141</v>
+        <v>1.4088</v>
       </c>
       <c r="D60" t="str">
-        <v>1.4566</v>
+        <v>1.4501</v>
       </c>
       <c r="E60" t="str">
-        <v>-0.10%</v>
+        <v>-0.45%</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-10-20</v>
+        <v>2023-10-27</v>
       </c>
       <c r="B61" t="str">
-        <v>1.1897</v>
+        <v>1.1885</v>
       </c>
       <c r="C61" t="str">
-        <v>1.4153</v>
+        <v>1.4141</v>
       </c>
       <c r="D61" t="str">
-        <v>1.4581</v>
+        <v>1.4566</v>
       </c>
       <c r="E61" t="str">
-        <v>0.65%</v>
+        <v>-0.10%</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-10-13</v>
+        <v>2023-10-20</v>
       </c>
       <c r="B62" t="str">
-        <v>1.1820</v>
+        <v>1.1897</v>
       </c>
       <c r="C62" t="str">
-        <v>1.4076</v>
+        <v>1.4153</v>
       </c>
       <c r="D62" t="str">
-        <v>1.4487</v>
+        <v>1.4581</v>
       </c>
       <c r="E62" t="str">
-        <v>0.08%</v>
+        <v>0.65%</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-28</v>
+        <v>2023-10-13</v>
       </c>
       <c r="B63" t="str">
-        <v>1.1810</v>
+        <v>1.1820</v>
       </c>
       <c r="C63" t="str">
-        <v>1.4066</v>
+        <v>1.4076</v>
       </c>
       <c r="D63" t="str">
-        <v>1.4474</v>
+        <v>1.4487</v>
       </c>
       <c r="E63" t="str">
-        <v>-0.18%</v>
+        <v>0.08%</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-22</v>
+        <v>2023-09-28</v>
       </c>
       <c r="B64" t="str">
-        <v>1.1831</v>
+        <v>1.1810</v>
       </c>
       <c r="C64" t="str">
-        <v>1.4087</v>
+        <v>1.4066</v>
       </c>
       <c r="D64" t="str">
-        <v>1.4500</v>
+        <v>1.4474</v>
       </c>
       <c r="E64" t="str">
-        <v>-0.11%</v>
+        <v>-0.18%</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-15</v>
+        <v>2023-09-22</v>
       </c>
       <c r="B65" t="str">
-        <v>1.1844</v>
+        <v>1.1831</v>
       </c>
       <c r="C65" t="str">
-        <v>1.4100</v>
+        <v>1.4087</v>
       </c>
       <c r="D65" t="str">
-        <v>1.4516</v>
+        <v>1.4500</v>
       </c>
       <c r="E65" t="str">
-        <v>1.87%</v>
+        <v>-0.11%</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-08</v>
+        <v>2023-09-15</v>
       </c>
       <c r="B66" t="str">
-        <v>1.1627</v>
+        <v>1.1844</v>
       </c>
       <c r="C66" t="str">
-        <v>1.3883</v>
+        <v>1.4100</v>
       </c>
       <c r="D66" t="str">
-        <v>1.4250</v>
+        <v>1.4516</v>
       </c>
       <c r="E66" t="str">
-        <v>0.16%</v>
+        <v>1.87%</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-01</v>
+        <v>2023-09-08</v>
       </c>
       <c r="B67" t="str">
-        <v>1.1609</v>
+        <v>1.1627</v>
       </c>
       <c r="C67" t="str">
-        <v>1.3865</v>
+        <v>1.3883</v>
       </c>
       <c r="D67" t="str">
-        <v>1.4228</v>
+        <v>1.4250</v>
       </c>
       <c r="E67" t="str">
-        <v>0.69%</v>
+        <v>0.16%</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-08-25</v>
+        <v>2023-09-01</v>
       </c>
       <c r="B68" t="str">
-        <v>1.1529</v>
+        <v>1.1609</v>
       </c>
       <c r="C68" t="str">
-        <v>1.3785</v>
+        <v>1.3865</v>
       </c>
       <c r="D68" t="str">
-        <v>1.4130</v>
+        <v>1.4228</v>
       </c>
       <c r="E68" t="str">
-        <v>-0.38%</v>
+        <v>0.69%</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-08-18</v>
+        <v>2023-08-25</v>
       </c>
       <c r="B69" t="str">
-        <v>1.1573</v>
+        <v>1.1529</v>
       </c>
       <c r="C69" t="str">
-        <v>1.3829</v>
+        <v>1.3785</v>
       </c>
       <c r="D69" t="str">
-        <v>1.4184</v>
+        <v>1.4130</v>
       </c>
       <c r="E69" t="str">
-        <v>0.07%</v>
+        <v>-0.38%</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-08-11</v>
+        <v>2023-08-18</v>
       </c>
       <c r="B70" t="str">
-        <v>1.1565</v>
+        <v>1.1573</v>
       </c>
       <c r="C70" t="str">
-        <v>1.3821</v>
+        <v>1.3829</v>
       </c>
       <c r="D70" t="str">
-        <v>1.4174</v>
+        <v>1.4184</v>
       </c>
       <c r="E70" t="str">
-        <v>0.95%</v>
+        <v>0.07%</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-08-04</v>
+        <v>2023-08-11</v>
       </c>
       <c r="B71" t="str">
-        <v>1.1456</v>
+        <v>1.1565</v>
       </c>
       <c r="C71" t="str">
-        <v>1.3712</v>
+        <v>1.3821</v>
       </c>
       <c r="D71" t="str">
-        <v>1.4040</v>
+        <v>1.4174</v>
       </c>
       <c r="E71" t="str">
-        <v>0.86%</v>
+        <v>0.95%</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-07-28</v>
+        <v>2023-08-04</v>
       </c>
       <c r="B72" t="str">
-        <v>1.1358</v>
+        <v>1.1456</v>
       </c>
       <c r="C72" t="str">
-        <v>1.3614</v>
+        <v>1.3712</v>
       </c>
       <c r="D72" t="str">
-        <v>1.3920</v>
+        <v>1.4040</v>
       </c>
       <c r="E72" t="str">
-        <v>-1.40%</v>
+        <v>0.86%</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-07-21</v>
+        <v>2023-07-28</v>
       </c>
       <c r="B73" t="str">
-        <v>1.1519</v>
+        <v>1.1358</v>
       </c>
       <c r="C73" t="str">
-        <v>1.3775</v>
+        <v>1.3614</v>
       </c>
       <c r="D73" t="str">
-        <v>1.4118</v>
+        <v>1.3920</v>
       </c>
       <c r="E73" t="str">
-        <v>0.03%</v>
+        <v>-1.40%</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-07-14</v>
+        <v>2023-07-21</v>
       </c>
       <c r="B74" t="str">
-        <v>1.1515</v>
+        <v>1.1519</v>
       </c>
       <c r="C74" t="str">
-        <v>1.3771</v>
+        <v>1.3775</v>
       </c>
       <c r="D74" t="str">
-        <v>1.4113</v>
+        <v>1.4118</v>
       </c>
       <c r="E74" t="str">
-        <v>1.05%</v>
+        <v>0.03%</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-07-07</v>
+        <v>2023-07-14</v>
       </c>
       <c r="B75" t="str">
-        <v>1.1395</v>
+        <v>1.1515</v>
       </c>
       <c r="C75" t="str">
-        <v>1.3651</v>
+        <v>1.3771</v>
       </c>
       <c r="D75" t="str">
-        <v>1.3966</v>
+        <v>1.4113</v>
       </c>
       <c r="E75" t="str">
-        <v>0.35%</v>
+        <v>1.05%</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-06-30</v>
+        <v>2023-07-07</v>
       </c>
       <c r="B76" t="str">
-        <v>1.1355</v>
+        <v>1.1395</v>
       </c>
       <c r="C76" t="str">
-        <v>1.3611</v>
+        <v>1.3651</v>
       </c>
       <c r="D76" t="str">
-        <v>1.3917</v>
+        <v>1.3966</v>
       </c>
       <c r="E76" t="str">
-        <v>2.00%</v>
+        <v>0.35%</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-06-21</v>
+        <v>2023-06-30</v>
       </c>
       <c r="B77" t="str">
-        <v>1.1132</v>
+        <v>1.1355</v>
       </c>
       <c r="C77" t="str">
-        <v>1.3388</v>
+        <v>1.3611</v>
       </c>
       <c r="D77" t="str">
-        <v>1.3643</v>
+        <v>1.3917</v>
       </c>
       <c r="E77" t="str">
-        <v>0.70%</v>
+        <v>2.00%</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-06-16</v>
+        <v>2023-06-21</v>
       </c>
       <c r="B78" t="str">
-        <v>1.1055</v>
+        <v>1.1132</v>
       </c>
       <c r="C78" t="str">
-        <v>1.3311</v>
+        <v>1.3388</v>
       </c>
       <c r="D78" t="str">
-        <v>1.3549</v>
+        <v>1.3643</v>
       </c>
       <c r="E78" t="str">
-        <v>-1.61%</v>
+        <v>0.70%</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-06-09</v>
+        <v>2023-06-16</v>
       </c>
       <c r="B79" t="str">
-        <v>1.1236</v>
+        <v>1.1055</v>
       </c>
       <c r="C79" t="str">
-        <v>1.3492</v>
+        <v>1.3311</v>
       </c>
       <c r="D79" t="str">
-        <v>1.3771</v>
+        <v>1.3549</v>
       </c>
       <c r="E79" t="str">
-        <v>-0.17%</v>
+        <v>-1.61%</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-06-02</v>
+        <v>2023-06-09</v>
       </c>
       <c r="B80" t="str">
-        <v>1.1255</v>
+        <v>1.1236</v>
       </c>
       <c r="C80" t="str">
-        <v>1.3511</v>
+        <v>1.3492</v>
       </c>
       <c r="D80" t="str">
-        <v>1.3794</v>
+        <v>1.3771</v>
       </c>
       <c r="E80" t="str">
-        <v>1.36%</v>
+        <v>-0.17%</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-05-26</v>
+        <v>2023-06-02</v>
       </c>
       <c r="B81" t="str">
-        <v>1.1104</v>
+        <v>1.1255</v>
       </c>
       <c r="C81" t="str">
-        <v>1.3360</v>
+        <v>1.3511</v>
       </c>
       <c r="D81" t="str">
-        <v>1.3609</v>
+        <v>1.3794</v>
       </c>
       <c r="E81" t="str">
-        <v>1.43%</v>
+        <v>1.36%</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-05-19</v>
+        <v>2023-05-26</v>
       </c>
       <c r="B82" t="str">
-        <v>1.0947</v>
+        <v>1.1104</v>
       </c>
       <c r="C82" t="str">
-        <v>1.3203</v>
+        <v>1.3360</v>
       </c>
       <c r="D82" t="str">
-        <v>1.3417</v>
+        <v>1.3609</v>
       </c>
       <c r="E82" t="str">
-        <v>0.06%</v>
+        <v>1.43%</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-05-12</v>
+        <v>2023-05-19</v>
       </c>
       <c r="B83" t="str">
-        <v>1.0940</v>
+        <v>1.0947</v>
       </c>
       <c r="C83" t="str">
-        <v>1.3196</v>
+        <v>1.3203</v>
       </c>
       <c r="D83" t="str">
-        <v>1.3408</v>
+        <v>1.3417</v>
       </c>
       <c r="E83" t="str">
-        <v>0.37%</v>
+        <v>0.06%</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-05-05</v>
+        <v>2023-05-12</v>
       </c>
       <c r="B84" t="str">
-        <v>1.0900</v>
+        <v>1.0940</v>
       </c>
       <c r="C84" t="str">
-        <v>1.3156</v>
+        <v>1.3196</v>
       </c>
       <c r="D84" t="str">
-        <v>1.3359</v>
+        <v>1.3408</v>
       </c>
       <c r="E84" t="str">
-        <v>1.22%</v>
+        <v>0.37%</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-04-28</v>
+        <v>2023-05-05</v>
       </c>
       <c r="B85" t="str">
-        <v>1.0769</v>
+        <v>1.0900</v>
       </c>
       <c r="C85" t="str">
-        <v>1.3025</v>
+        <v>1.3156</v>
       </c>
       <c r="D85" t="str">
-        <v>1.3198</v>
+        <v>1.3359</v>
       </c>
       <c r="E85" t="str">
-        <v>1.54%</v>
+        <v>1.22%</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-04-21</v>
+        <v>2023-04-28</v>
       </c>
       <c r="B86" t="str">
-        <v>1.0606</v>
+        <v>1.0769</v>
       </c>
       <c r="C86" t="str">
-        <v>1.2862</v>
+        <v>1.3025</v>
       </c>
       <c r="D86" t="str">
-        <v>1.2999</v>
+        <v>1.3198</v>
       </c>
       <c r="E86" t="str">
-        <v>2.42%</v>
+        <v>1.54%</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-04-14</v>
+        <v>2023-04-21</v>
       </c>
       <c r="B87" t="str">
-        <v>1.0355</v>
+        <v>1.0606</v>
       </c>
       <c r="C87" t="str">
-        <v>1.2611</v>
+        <v>1.2862</v>
       </c>
       <c r="D87" t="str">
-        <v>1.2691</v>
+        <v>1.2999</v>
       </c>
       <c r="E87" t="str">
-        <v>0.64%</v>
+        <v>2.42%</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-04-07</v>
+        <v>2023-04-14</v>
       </c>
       <c r="B88" t="str">
-        <v>1.0289</v>
+        <v>1.0355</v>
       </c>
       <c r="C88" t="str">
-        <v>1.2545</v>
+        <v>1.2611</v>
       </c>
       <c r="D88" t="str">
-        <v>1.2610</v>
+        <v>1.2691</v>
       </c>
       <c r="E88" t="str">
-        <v>0.06%</v>
+        <v>0.64%</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-03-31</v>
+        <v>2023-04-07</v>
       </c>
       <c r="B89" t="str">
-        <v>1.0283</v>
+        <v>1.0289</v>
       </c>
       <c r="C89" t="str">
-        <v>1.2539</v>
+        <v>1.2545</v>
       </c>
       <c r="D89" t="str">
-        <v>1.2603</v>
+        <v>1.2610</v>
       </c>
       <c r="E89" t="str">
-        <v>-0.80%</v>
+        <v>0.06%</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-03-24</v>
+        <v>2023-03-31</v>
       </c>
       <c r="B90" t="str">
-        <v>1.0366</v>
+        <v>1.0283</v>
       </c>
       <c r="C90" t="str">
-        <v>1.2622</v>
+        <v>1.2539</v>
       </c>
       <c r="D90" t="str">
-        <v>1.2705</v>
+        <v>1.2603</v>
       </c>
       <c r="E90" t="str">
-        <v>-0.82%</v>
+        <v>-0.80%</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-03-17</v>
+        <v>2023-03-24</v>
       </c>
       <c r="B91" t="str">
-        <v>1.0452</v>
+        <v>1.0366</v>
       </c>
       <c r="C91" t="str">
-        <v>1.2708</v>
+        <v>1.2622</v>
       </c>
       <c r="D91" t="str">
-        <v>1.2810</v>
+        <v>1.2705</v>
       </c>
       <c r="E91" t="str">
-        <v>-0.21%</v>
+        <v>-0.82%</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-03-10</v>
+        <v>2023-03-17</v>
       </c>
       <c r="B92" t="str">
-        <v>1.0474</v>
+        <v>1.0452</v>
       </c>
       <c r="C92" t="str">
-        <v>1.2730</v>
+        <v>1.2708</v>
       </c>
       <c r="D92" t="str">
-        <v>1.2837</v>
+        <v>1.2810</v>
       </c>
       <c r="E92" t="str">
-        <v>0.70%</v>
+        <v>-0.21%</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-03-03</v>
+        <v>2023-03-10</v>
       </c>
       <c r="B93" t="str">
-        <v>1.0401</v>
+        <v>1.0474</v>
       </c>
       <c r="C93" t="str">
-        <v>1.2657</v>
+        <v>1.2730</v>
       </c>
       <c r="D93" t="str">
-        <v>1.2747</v>
+        <v>1.2837</v>
       </c>
       <c r="E93" t="str">
-        <v>-0.49%</v>
+        <v>0.70%</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-02-24</v>
+        <v>2023-03-03</v>
       </c>
       <c r="B94" t="str">
-        <v>1.0452</v>
+        <v>1.0401</v>
       </c>
       <c r="C94" t="str">
-        <v>1.2708</v>
+        <v>1.2657</v>
       </c>
       <c r="D94" t="str">
-        <v>1.2810</v>
+        <v>1.2747</v>
       </c>
       <c r="E94" t="str">
-        <v>-0.12%</v>
+        <v>-0.49%</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-02-17</v>
+        <v>2023-02-24</v>
       </c>
       <c r="B95" t="str">
-        <v>1.0465</v>
+        <v>1.0452</v>
       </c>
       <c r="C95" t="str">
-        <v>1.2721</v>
+        <v>1.2708</v>
       </c>
       <c r="D95" t="str">
-        <v>1.2826</v>
+        <v>1.2810</v>
       </c>
       <c r="E95" t="str">
-        <v>-0.10%</v>
+        <v>-0.12%</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-02-10</v>
+        <v>2023-02-17</v>
       </c>
       <c r="B96" t="str">
-        <v>1.0475</v>
+        <v>1.0465</v>
       </c>
       <c r="C96" t="str">
-        <v>1.2731</v>
+        <v>1.2721</v>
       </c>
       <c r="D96" t="str">
-        <v>1.2838</v>
+        <v>1.2826</v>
       </c>
       <c r="E96" t="str">
-        <v>0.41%</v>
+        <v>-0.10%</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-02-03</v>
+        <v>2023-02-10</v>
       </c>
       <c r="B97" t="str">
-        <v>1.0432</v>
+        <v>1.0475</v>
       </c>
       <c r="C97" t="str">
-        <v>1.2688</v>
+        <v>1.2731</v>
       </c>
       <c r="D97" t="str">
-        <v>1.2785</v>
+        <v>1.2838</v>
       </c>
       <c r="E97" t="str">
-        <v>0.35%</v>
+        <v>0.41%</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-01-20</v>
+        <v>2023-02-03</v>
       </c>
       <c r="B98" t="str">
-        <v>1.0396</v>
+        <v>1.0432</v>
       </c>
       <c r="C98" t="str">
-        <v>1.2652</v>
+        <v>1.2688</v>
       </c>
       <c r="D98" t="str">
-        <v>1.2741</v>
+        <v>1.2785</v>
       </c>
       <c r="E98" t="str">
-        <v>1.11%</v>
+        <v>0.35%</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-01-13</v>
+        <v>2023-01-20</v>
       </c>
       <c r="B99" t="str">
-        <v>1.0282</v>
+        <v>1.0396</v>
       </c>
       <c r="C99" t="str">
-        <v>1.2538</v>
+        <v>1.2652</v>
       </c>
       <c r="D99" t="str">
-        <v>1.2602</v>
+        <v>1.2741</v>
       </c>
       <c r="E99" t="str">
-        <v>-1.32%</v>
+        <v>1.11%</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-01-06</v>
+        <v>2023-01-13</v>
       </c>
       <c r="B100" t="str">
-        <v>1.0420</v>
+        <v>1.0282</v>
       </c>
       <c r="C100" t="str">
-        <v>1.2676</v>
+        <v>1.2538</v>
       </c>
       <c r="D100" t="str">
-        <v>1.2771</v>
+        <v>1.2602</v>
       </c>
       <c r="E100" t="str">
-        <v>1.90%</v>
+        <v>-1.32%</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2022-12-30</v>
+        <v>2023-01-06</v>
       </c>
       <c r="B101" t="str">
-        <v>1.0226</v>
+        <v>1.0420</v>
       </c>
       <c r="C101" t="str">
-        <v>1.2482</v>
+        <v>1.2676</v>
       </c>
       <c r="D101" t="str">
-        <v>1.2533</v>
+        <v>1.2771</v>
       </c>
       <c r="E101" t="str">
-        <v>1.58%</v>
+        <v>1.90%</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2022-12-23</v>
+        <v>2022-12-30</v>
       </c>
       <c r="B102" t="str">
-        <v>1.0067</v>
+        <v>1.0226</v>
       </c>
       <c r="C102" t="str">
-        <v>1.2323</v>
+        <v>1.2482</v>
       </c>
       <c r="D102" t="str">
-        <v>1.2338</v>
+        <v>1.2533</v>
       </c>
       <c r="E102" t="str">
-        <v>-0.45%</v>
+        <v>1.58%</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2022-12-16</v>
+        <v>2022-12-23</v>
       </c>
       <c r="B103" t="str">
-        <v>1.0113</v>
+        <v>1.0067</v>
       </c>
       <c r="C103" t="str">
-        <v>1.2369</v>
+        <v>1.2323</v>
       </c>
       <c r="D103" t="str">
-        <v>1.2394</v>
+        <v>1.2338</v>
       </c>
       <c r="E103" t="str">
-        <v>-0.56%</v>
+        <v>-0.45%</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2022-12-09</v>
+        <v>2022-12-16</v>
       </c>
       <c r="B104" t="str">
-        <v>1.0170</v>
+        <v>1.0113</v>
       </c>
       <c r="C104" t="str">
-        <v>1.2426</v>
+        <v>1.2369</v>
       </c>
       <c r="D104" t="str">
-        <v>1.2464</v>
+        <v>1.2394</v>
       </c>
       <c r="E104" t="str">
-        <v>-0.73%</v>
+        <v>-0.56%</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2022-12-02</v>
+        <v>2022-12-09</v>
       </c>
       <c r="B105" t="str">
-        <v>1.0245</v>
+        <v>1.0170</v>
       </c>
       <c r="C105" t="str">
-        <v>1.2501</v>
+        <v>1.2426</v>
       </c>
       <c r="D105" t="str">
-        <v>1.2556</v>
+        <v>1.2464</v>
       </c>
       <c r="E105" t="str">
-        <v>0.09%</v>
+        <v>-0.73%</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2022-11-25</v>
+        <v>2022-12-02</v>
       </c>
       <c r="B106" t="str">
-        <v>1.0236</v>
+        <v>1.0245</v>
       </c>
       <c r="C106" t="str">
-        <v>1.2492</v>
+        <v>1.2501</v>
       </c>
       <c r="D106" t="str">
-        <v>1.2545</v>
+        <v>1.2556</v>
       </c>
       <c r="E106" t="str">
-        <v>1.03%</v>
+        <v>0.09%</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2022-11-18</v>
+        <v>2022-11-25</v>
       </c>
       <c r="B107" t="str">
-        <v>1.0132</v>
+        <v>1.0236</v>
       </c>
       <c r="C107" t="str">
-        <v>1.2388</v>
+        <v>1.2492</v>
       </c>
       <c r="D107" t="str">
-        <v>1.2418</v>
+        <v>1.2545</v>
       </c>
       <c r="E107" t="str">
-        <v>0.68%</v>
+        <v>1.03%</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2022-11-11</v>
+        <v>2022-11-18</v>
       </c>
       <c r="B108" t="str">
-        <v>1.0064</v>
+        <v>1.0132</v>
       </c>
       <c r="C108" t="str">
-        <v>1.2320</v>
+        <v>1.2388</v>
       </c>
       <c r="D108" t="str">
-        <v>1.2334</v>
+        <v>1.2418</v>
       </c>
       <c r="E108" t="str">
-        <v>0.32%</v>
+        <v>0.68%</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2022-11-04</v>
+        <v>2022-11-11</v>
       </c>
       <c r="B109" t="str">
-        <v>1.0032</v>
+        <v>1.0064</v>
       </c>
       <c r="C109" t="str">
-        <v>1.2288</v>
+        <v>1.2320</v>
       </c>
       <c r="D109" t="str">
-        <v>1.2295</v>
+        <v>1.2334</v>
       </c>
       <c r="E109" t="str">
-        <v>0.23%</v>
+        <v>0.32%</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2022-10-28</v>
+        <v>2022-11-04</v>
       </c>
       <c r="B110" t="str">
-        <v>1.0009</v>
+        <v>1.0032</v>
       </c>
       <c r="C110" t="str">
-        <v>1.2265</v>
+        <v>1.2288</v>
       </c>
       <c r="D110" t="str">
-        <v>1.2267</v>
+        <v>1.2295</v>
       </c>
       <c r="E110" t="str">
-        <v>1.49%</v>
+        <v>0.23%</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2022-10-21</v>
+        <v>2022-10-28</v>
       </c>
       <c r="B111" t="str">
-        <v>0.9862</v>
+        <v>1.0009</v>
       </c>
       <c r="C111" t="str">
-        <v>1.2118</v>
+        <v>1.2265</v>
       </c>
       <c r="D111" t="str">
-        <v>1.2087</v>
+        <v>1.2267</v>
       </c>
       <c r="E111" t="str">
-        <v>-1.25%</v>
+        <v>1.49%</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2022-10-14</v>
+        <v>2022-10-21</v>
       </c>
       <c r="B112" t="str">
-        <v>0.9987</v>
+        <v>0.9862</v>
       </c>
       <c r="C112" t="str">
-        <v>1.2243</v>
+        <v>1.2118</v>
       </c>
       <c r="D112" t="str">
-        <v>1.2240</v>
+        <v>1.2087</v>
       </c>
       <c r="E112" t="str">
-        <v>-0.13%</v>
+        <v>-1.25%</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2022-09-30</v>
+        <v>2022-10-14</v>
       </c>
       <c r="B113" t="str">
-        <v>1.0000</v>
+        <v>0.9987</v>
       </c>
       <c r="C113" t="str">
-        <v>1.2256</v>
+        <v>1.2243</v>
       </c>
       <c r="D113" t="str">
-        <v>1.2256</v>
+        <v>1.2240</v>
       </c>
       <c r="E113" t="str">
-        <v>-0.63%</v>
+        <v>-0.13%</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2022-09-23</v>
+        <v>2022-09-30</v>
       </c>
       <c r="B114" t="str">
-        <v>1.2334</v>
+        <v>1.0000</v>
       </c>
       <c r="C114" t="str">
-        <v>1.2334</v>
+        <v>1.2256</v>
       </c>
       <c r="D114" t="str">
-        <v>1.2334</v>
+        <v>1.2256</v>
       </c>
       <c r="E114" t="str">
-        <v>0.60%</v>
+        <v>-0.63%</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2022-09-16</v>
+        <v>2022-09-23</v>
       </c>
       <c r="B115" t="str">
-        <v>1.2260</v>
+        <v>1.2334</v>
       </c>
       <c r="C115" t="str">
-        <v>1.2260</v>
+        <v>1.2334</v>
       </c>
       <c r="D115" t="str">
-        <v>1.2260</v>
+        <v>1.2334</v>
       </c>
       <c r="E115" t="str">
-        <v>-2.09%</v>
+        <v>0.60%</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2022-09-09</v>
+        <v>2022-09-16</v>
       </c>
       <c r="B116" t="str">
-        <v>1.2522</v>
+        <v>1.2260</v>
       </c>
       <c r="C116" t="str">
-        <v>1.2522</v>
+        <v>1.2260</v>
       </c>
       <c r="D116" t="str">
-        <v>1.2522</v>
+        <v>1.2260</v>
       </c>
       <c r="E116" t="str">
-        <v>1.24%</v>
+        <v>-2.09%</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2022-09-02</v>
+        <v>2022-09-09</v>
       </c>
       <c r="B117" t="str">
-        <v>1.2369</v>
+        <v>1.2522</v>
       </c>
       <c r="C117" t="str">
-        <v>1.2369</v>
+        <v>1.2522</v>
       </c>
       <c r="D117" t="str">
-        <v>1.2369</v>
+        <v>1.2522</v>
       </c>
       <c r="E117" t="str">
-        <v>3.12%</v>
+        <v>1.24%</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2022-08-26</v>
+        <v>2022-09-02</v>
       </c>
       <c r="B118" t="str">
-        <v>1.1995</v>
+        <v>1.2369</v>
       </c>
       <c r="C118" t="str">
-        <v>1.1995</v>
+        <v>1.2369</v>
       </c>
       <c r="D118" t="str">
-        <v>1.1995</v>
+        <v>1.2369</v>
       </c>
       <c r="E118" t="str">
-        <v>-1.65%</v>
+        <v>3.12%</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2022-08-19</v>
+        <v>2022-08-26</v>
       </c>
       <c r="B119" t="str">
-        <v>1.2196</v>
+        <v>1.1995</v>
       </c>
       <c r="C119" t="str">
-        <v>1.2196</v>
+        <v>1.1995</v>
       </c>
       <c r="D119" t="str">
-        <v>1.2196</v>
+        <v>1.1995</v>
       </c>
       <c r="E119" t="str">
-        <v>1.21%</v>
+        <v>-1.65%</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2022-08-12</v>
+        <v>2022-08-19</v>
       </c>
       <c r="B120" t="str">
-        <v>1.2050</v>
+        <v>1.2196</v>
       </c>
       <c r="C120" t="str">
-        <v>1.2050</v>
+        <v>1.2196</v>
       </c>
       <c r="D120" t="str">
-        <v>1.2050</v>
+        <v>1.2196</v>
       </c>
       <c r="E120" t="str">
-        <v>-1.96%</v>
+        <v>1.21%</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2022-08-05</v>
+        <v>2022-08-12</v>
       </c>
       <c r="B121" t="str">
-        <v>1.2291</v>
+        <v>1.2050</v>
       </c>
       <c r="C121" t="str">
-        <v>1.2291</v>
+        <v>1.2050</v>
       </c>
       <c r="D121" t="str">
-        <v>1.2291</v>
+        <v>1.2050</v>
       </c>
       <c r="E121" t="str">
-        <v>2.07%</v>
+        <v>-1.96%</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2022-07-29</v>
+        <v>2022-08-05</v>
       </c>
       <c r="B122" t="str">
-        <v>1.2042</v>
+        <v>1.2291</v>
       </c>
       <c r="C122" t="str">
-        <v>1.2042</v>
+        <v>1.2291</v>
       </c>
       <c r="D122" t="str">
-        <v>1.2042</v>
+        <v>1.2291</v>
       </c>
       <c r="E122" t="str">
-        <v>-2.61%</v>
+        <v>2.07%</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2022-07-22</v>
+        <v>2022-07-29</v>
       </c>
       <c r="B123" t="str">
-        <v>1.2365</v>
+        <v>1.2042</v>
       </c>
       <c r="C123" t="str">
-        <v>1.2365</v>
+        <v>1.2042</v>
       </c>
       <c r="D123" t="str">
-        <v>1.2365</v>
+        <v>1.2042</v>
       </c>
       <c r="E123" t="str">
-        <v>1.64%</v>
+        <v>-2.61%</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2022-07-15</v>
+        <v>2022-07-22</v>
       </c>
       <c r="B124" t="str">
-        <v>1.2165</v>
+        <v>1.2365</v>
       </c>
       <c r="C124" t="str">
-        <v>1.2165</v>
+        <v>1.2365</v>
       </c>
       <c r="D124" t="str">
-        <v>1.2165</v>
+        <v>1.2365</v>
       </c>
       <c r="E124" t="str">
-        <v>2.61%</v>
+        <v>1.64%</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2022-07-08</v>
+        <v>2022-07-15</v>
       </c>
       <c r="B125" t="str">
-        <v>1.1855</v>
+        <v>1.2165</v>
       </c>
       <c r="C125" t="str">
-        <v>1.1855</v>
+        <v>1.2165</v>
       </c>
       <c r="D125" t="str">
-        <v>1.1855</v>
+        <v>1.2165</v>
       </c>
       <c r="E125" t="str">
-        <v>-0.13%</v>
+        <v>2.61%</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2022-07-01</v>
+        <v>2022-07-08</v>
       </c>
       <c r="B126" t="str">
-        <v>1.1870</v>
+        <v>1.1855</v>
       </c>
       <c r="C126" t="str">
-        <v>1.1870</v>
+        <v>1.1855</v>
       </c>
       <c r="D126" t="str">
-        <v>1.1870</v>
+        <v>1.1855</v>
       </c>
       <c r="E126" t="str">
-        <v>0.65%</v>
+        <v>-0.13%</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2022-06-24</v>
+        <v>2022-07-01</v>
       </c>
       <c r="B127" t="str">
-        <v>1.1793</v>
+        <v>1.1870</v>
       </c>
       <c r="C127" t="str">
-        <v>1.1793</v>
+        <v>1.1870</v>
       </c>
       <c r="D127" t="str">
-        <v>1.1793</v>
+        <v>1.1870</v>
       </c>
       <c r="E127" t="str">
-        <v>-0.75%</v>
+        <v>0.65%</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2022-06-17</v>
+        <v>2022-06-24</v>
       </c>
       <c r="B128" t="str">
-        <v>1.1882</v>
+        <v>1.1793</v>
       </c>
       <c r="C128" t="str">
-        <v>1.1882</v>
+        <v>1.1793</v>
       </c>
       <c r="D128" t="str">
-        <v>1.1882</v>
+        <v>1.1793</v>
       </c>
       <c r="E128" t="str">
-        <v>-1.04%</v>
+        <v>-0.75%</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2022-06-10</v>
+        <v>2022-06-17</v>
       </c>
       <c r="B129" t="str">
-        <v>1.2007</v>
+        <v>1.1882</v>
       </c>
       <c r="C129" t="str">
-        <v>1.2007</v>
+        <v>1.1882</v>
       </c>
       <c r="D129" t="str">
-        <v>1.2007</v>
+        <v>1.1882</v>
       </c>
       <c r="E129" t="str">
-        <v>-1.10%</v>
+        <v>-1.04%</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2022-06-02</v>
+        <v>2022-06-10</v>
       </c>
       <c r="B130" t="str">
-        <v>1.2141</v>
+        <v>1.2007</v>
       </c>
       <c r="C130" t="str">
-        <v>1.2141</v>
+        <v>1.2007</v>
       </c>
       <c r="D130" t="str">
-        <v>1.2141</v>
+        <v>1.2007</v>
       </c>
       <c r="E130" t="str">
-        <v>-1.08%</v>
+        <v>-1.10%</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2022-05-27</v>
+        <v>2022-06-02</v>
       </c>
       <c r="B131" t="str">
-        <v>1.2273</v>
+        <v>1.2141</v>
       </c>
       <c r="C131" t="str">
-        <v>1.2273</v>
+        <v>1.2141</v>
       </c>
       <c r="D131" t="str">
-        <v>1.2273</v>
+        <v>1.2141</v>
       </c>
       <c r="E131" t="str">
-        <v>-0.38%</v>
+        <v>-1.08%</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2022-05-20</v>
+        <v>2022-05-27</v>
       </c>
       <c r="B132" t="str">
-        <v>1.2320</v>
+        <v>1.2273</v>
       </c>
       <c r="C132" t="str">
-        <v>1.2320</v>
+        <v>1.2273</v>
       </c>
       <c r="D132" t="str">
-        <v>1.2320</v>
+        <v>1.2273</v>
       </c>
       <c r="E132" t="str">
-        <v>1.67%</v>
+        <v>-0.38%</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2022-05-13</v>
+        <v>2022-05-20</v>
       </c>
       <c r="B133" t="str">
-        <v>1.2118</v>
+        <v>1.2320</v>
       </c>
       <c r="C133" t="str">
-        <v>1.2118</v>
+        <v>1.2320</v>
       </c>
       <c r="D133" t="str">
-        <v>1.2118</v>
+        <v>1.2320</v>
       </c>
       <c r="E133" t="str">
-        <v>0.33%</v>
+        <v>1.67%</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2022-05-06</v>
+        <v>2022-05-13</v>
       </c>
       <c r="B134" t="str">
-        <v>1.2078</v>
+        <v>1.2118</v>
       </c>
       <c r="C134" t="str">
-        <v>1.2078</v>
+        <v>1.2118</v>
       </c>
       <c r="D134" t="str">
-        <v>1.2078</v>
+        <v>1.2118</v>
       </c>
       <c r="E134" t="str">
-        <v>0.27%</v>
+        <v>0.33%</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2022-04-29</v>
+        <v>2022-05-06</v>
       </c>
       <c r="B135" t="str">
-        <v>1.2045</v>
+        <v>1.2078</v>
       </c>
       <c r="C135" t="str">
-        <v>1.2045</v>
+        <v>1.2078</v>
       </c>
       <c r="D135" t="str">
-        <v>1.2045</v>
+        <v>1.2078</v>
       </c>
       <c r="E135" t="str">
-        <v>-0.40%</v>
+        <v>0.27%</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2022-04-22</v>
+        <v>2022-04-29</v>
       </c>
       <c r="B136" t="str">
-        <v>1.2093</v>
+        <v>1.2045</v>
       </c>
       <c r="C136" t="str">
-        <v>1.2093</v>
+        <v>1.2045</v>
       </c>
       <c r="D136" t="str">
-        <v>1.2093</v>
+        <v>1.2045</v>
       </c>
       <c r="E136" t="str">
-        <v>1.05%</v>
+        <v>-0.40%</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2022-04-15</v>
+        <v>2022-04-22</v>
       </c>
       <c r="B137" t="str">
-        <v>1.1967</v>
+        <v>1.2093</v>
       </c>
       <c r="C137" t="str">
-        <v>1.1967</v>
+        <v>1.2093</v>
       </c>
       <c r="D137" t="str">
-        <v>1.1967</v>
+        <v>1.2093</v>
       </c>
       <c r="E137" t="str">
-        <v>1.93%</v>
+        <v>1.05%</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2022-04-08</v>
+        <v>2022-04-15</v>
       </c>
       <c r="B138" t="str">
-        <v>1.1740</v>
+        <v>1.1967</v>
       </c>
       <c r="C138" t="str">
-        <v>1.1740</v>
+        <v>1.1967</v>
       </c>
       <c r="D138" t="str">
-        <v>1.1740</v>
+        <v>1.1967</v>
       </c>
       <c r="E138" t="str">
-        <v>0.16%</v>
+        <v>1.93%</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2022-04-01</v>
+        <v>2022-04-08</v>
       </c>
       <c r="B139" t="str">
-        <v>1.1721</v>
+        <v>1.1740</v>
       </c>
       <c r="C139" t="str">
-        <v>1.1721</v>
+        <v>1.1740</v>
       </c>
       <c r="D139" t="str">
-        <v>1.1721</v>
+        <v>1.1740</v>
       </c>
       <c r="E139" t="str">
-        <v>-0.14%</v>
+        <v>0.16%</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2022-03-25</v>
+        <v>2022-04-01</v>
       </c>
       <c r="B140" t="str">
-        <v>1.1737</v>
+        <v>1.1721</v>
       </c>
       <c r="C140" t="str">
-        <v>1.1737</v>
+        <v>1.1721</v>
       </c>
       <c r="D140" t="str">
-        <v>1.1737</v>
+        <v>1.1721</v>
       </c>
       <c r="E140" t="str">
-        <v>0.10%</v>
+        <v>-0.14%</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2022-03-18</v>
+        <v>2022-03-25</v>
       </c>
       <c r="B141" t="str">
-        <v>1.1725</v>
+        <v>1.1737</v>
       </c>
       <c r="C141" t="str">
-        <v>1.1725</v>
+        <v>1.1737</v>
       </c>
       <c r="D141" t="str">
-        <v>1.1725</v>
+        <v>1.1737</v>
       </c>
       <c r="E141" t="str">
-        <v>-0.10%</v>
+        <v>0.10%</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2022-03-11</v>
+        <v>2022-03-18</v>
       </c>
       <c r="B142" t="str">
-        <v>1.1737</v>
+        <v>1.1725</v>
       </c>
       <c r="C142" t="str">
-        <v>1.1737</v>
+        <v>1.1725</v>
       </c>
       <c r="D142" t="str">
-        <v>1.1737</v>
+        <v>1.1725</v>
       </c>
       <c r="E142" t="str">
-        <v>-0.73%</v>
+        <v>-0.10%</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2022-03-04</v>
+        <v>2022-03-11</v>
       </c>
       <c r="B143" t="str">
-        <v>1.1823</v>
+        <v>1.1737</v>
       </c>
       <c r="C143" t="str">
-        <v>1.1823</v>
+        <v>1.1737</v>
       </c>
       <c r="D143" t="str">
-        <v>1.1823</v>
+        <v>1.1737</v>
       </c>
       <c r="E143" t="str">
-        <v>3.51%</v>
+        <v>-0.73%</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2022-02-25</v>
+        <v>2022-03-04</v>
       </c>
       <c r="B144" t="str">
-        <v>1.1422</v>
+        <v>1.1823</v>
       </c>
       <c r="C144" t="str">
-        <v>1.1422</v>
+        <v>1.1823</v>
       </c>
       <c r="D144" t="str">
-        <v>1.1422</v>
+        <v>1.1823</v>
       </c>
       <c r="E144" t="str">
-        <v>-0.91%</v>
+        <v>3.51%</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2022-02-18</v>
+        <v>2022-02-25</v>
       </c>
       <c r="B145" t="str">
-        <v>1.1527</v>
+        <v>1.1422</v>
       </c>
       <c r="C145" t="str">
-        <v>1.1527</v>
+        <v>1.1422</v>
       </c>
       <c r="D145" t="str">
-        <v>1.1527</v>
+        <v>1.1422</v>
       </c>
       <c r="E145" t="str">
-        <v>1.01%</v>
+        <v>-0.91%</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2022-02-11</v>
+        <v>2022-02-18</v>
       </c>
       <c r="B146" t="str">
-        <v>1.1412</v>
+        <v>1.1527</v>
       </c>
       <c r="C146" t="str">
-        <v>1.1412</v>
+        <v>1.1527</v>
       </c>
       <c r="D146" t="str">
-        <v>1.1412</v>
+        <v>1.1527</v>
       </c>
       <c r="E146" t="str">
-        <v>2.50%</v>
+        <v>1.01%</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2022-01-28</v>
+        <v>2022-02-11</v>
       </c>
       <c r="B147" t="str">
-        <v>1.1134</v>
+        <v>1.1412</v>
       </c>
       <c r="C147" t="str">
-        <v>1.1134</v>
+        <v>1.1412</v>
       </c>
       <c r="D147" t="str">
-        <v>1.1134</v>
+        <v>1.1412</v>
       </c>
       <c r="E147" t="str">
-        <v>0.75%</v>
+        <v>2.50%</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2022-01-21</v>
+        <v>2022-01-28</v>
       </c>
       <c r="B148" t="str">
-        <v>1.1051</v>
+        <v>1.1134</v>
       </c>
       <c r="C148" t="str">
-        <v>1.1051</v>
+        <v>1.1134</v>
       </c>
       <c r="D148" t="str">
-        <v>1.1051</v>
+        <v>1.1134</v>
       </c>
       <c r="E148" t="str">
-        <v>-0.37%</v>
+        <v>0.75%</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2022-01-14</v>
+        <v>2022-01-21</v>
       </c>
       <c r="B149" t="str">
-        <v>1.1092</v>
+        <v>1.1051</v>
       </c>
       <c r="C149" t="str">
-        <v>1.1092</v>
+        <v>1.1051</v>
       </c>
       <c r="D149" t="str">
-        <v>1.1092</v>
+        <v>1.1051</v>
       </c>
       <c r="E149" t="str">
-        <v>-1.25%</v>
+        <v>-0.37%</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2022-01-07</v>
+        <v>2022-01-14</v>
       </c>
       <c r="B150" t="str">
-        <v>1.1232</v>
+        <v>1.1092</v>
       </c>
       <c r="C150" t="str">
-        <v>1.1232</v>
+        <v>1.1092</v>
       </c>
       <c r="D150" t="str">
-        <v>1.1232</v>
+        <v>1.1092</v>
       </c>
       <c r="E150" t="str">
-        <v>-0.55%</v>
+        <v>-1.25%</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2021-12-31</v>
+        <v>2022-01-07</v>
       </c>
       <c r="B151" t="str">
-        <v>1.1294</v>
+        <v>1.1232</v>
       </c>
       <c r="C151" t="str">
-        <v>1.1294</v>
+        <v>1.1232</v>
       </c>
       <c r="D151" t="str">
-        <v>1.1294</v>
+        <v>1.1232</v>
       </c>
       <c r="E151" t="str">
-        <v>0.88%</v>
+        <v>-0.55%</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2021-12-24</v>
+        <v>2021-12-31</v>
       </c>
       <c r="B152" t="str">
-        <v>1.1196</v>
+        <v>1.1294</v>
       </c>
       <c r="C152" t="str">
-        <v>1.1196</v>
+        <v>1.1294</v>
       </c>
       <c r="D152" t="str">
-        <v>1.1196</v>
+        <v>1.1294</v>
       </c>
       <c r="E152" t="str">
-        <v>0.29%</v>
+        <v>0.88%</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2021-12-17</v>
+        <v>2021-12-24</v>
       </c>
       <c r="B153" t="str">
-        <v>1.1164</v>
+        <v>1.1196</v>
       </c>
       <c r="C153" t="str">
-        <v>1.1164</v>
+        <v>1.1196</v>
       </c>
       <c r="D153" t="str">
-        <v>1.1164</v>
+        <v>1.1196</v>
       </c>
       <c r="E153" t="str">
-        <v>0.75%</v>
+        <v>0.29%</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2021-12-10</v>
+        <v>2021-12-17</v>
       </c>
       <c r="B154" t="str">
-        <v>1.1081</v>
+        <v>1.1164</v>
       </c>
       <c r="C154" t="str">
-        <v>1.1081</v>
+        <v>1.1164</v>
       </c>
       <c r="D154" t="str">
-        <v>1.1081</v>
+        <v>1.1164</v>
       </c>
       <c r="E154" t="str">
-        <v>3.42%</v>
+        <v>0.75%</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2021-12-03</v>
+        <v>2021-12-10</v>
       </c>
       <c r="B155" t="str">
-        <v>1.0715</v>
+        <v>1.1081</v>
       </c>
       <c r="C155" t="str">
-        <v>1.0715</v>
+        <v>1.1081</v>
       </c>
       <c r="D155" t="str">
-        <v>1.0715</v>
+        <v>1.1081</v>
       </c>
       <c r="E155" t="str">
-        <v>-2.32%</v>
+        <v>3.42%</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2021-11-26</v>
+        <v>2021-12-03</v>
       </c>
       <c r="B156" t="str">
-        <v>1.0969</v>
+        <v>1.0715</v>
       </c>
       <c r="C156" t="str">
-        <v>1.0969</v>
+        <v>1.0715</v>
       </c>
       <c r="D156" t="str">
-        <v>1.0969</v>
+        <v>1.0715</v>
       </c>
       <c r="E156" t="str">
-        <v>-2.05%</v>
+        <v>-2.32%</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2021-11-19</v>
+        <v>2021-11-26</v>
       </c>
       <c r="B157" t="str">
-        <v>1.1199</v>
+        <v>1.0969</v>
       </c>
       <c r="C157" t="str">
-        <v>1.1199</v>
+        <v>1.0969</v>
       </c>
       <c r="D157" t="str">
-        <v>1.1199</v>
+        <v>1.0969</v>
       </c>
       <c r="E157" t="str">
-        <v>-1.18%</v>
+        <v>-2.05%</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2021-11-12</v>
+        <v>2021-11-19</v>
       </c>
       <c r="B158" t="str">
-        <v>1.1333</v>
+        <v>1.1199</v>
       </c>
       <c r="C158" t="str">
-        <v>1.1333</v>
+        <v>1.1199</v>
       </c>
       <c r="D158" t="str">
-        <v>1.1333</v>
+        <v>1.1199</v>
       </c>
       <c r="E158" t="str">
-        <v>0.64%</v>
+        <v>-1.18%</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2021-11-05</v>
+        <v>2021-11-12</v>
       </c>
       <c r="B159" t="str">
-        <v>1.1261</v>
+        <v>1.1333</v>
       </c>
       <c r="C159" t="str">
-        <v>1.1261</v>
+        <v>1.1333</v>
       </c>
       <c r="D159" t="str">
-        <v>1.1261</v>
+        <v>1.1333</v>
       </c>
       <c r="E159" t="str">
-        <v>1.00%</v>
+        <v>0.64%</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2021-10-29</v>
+        <v>2021-11-05</v>
       </c>
       <c r="B160" t="str">
-        <v>1.1149</v>
+        <v>1.1261</v>
       </c>
       <c r="C160" t="str">
-        <v>1.1149</v>
+        <v>1.1261</v>
       </c>
       <c r="D160" t="str">
-        <v>1.1149</v>
+        <v>1.1261</v>
       </c>
       <c r="E160" t="str">
-        <v>-0.10%</v>
+        <v>1.00%</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2021-10-22</v>
+        <v>2021-10-29</v>
       </c>
       <c r="B161" t="str">
-        <v>1.1160</v>
+        <v>1.1149</v>
       </c>
       <c r="C161" t="str">
-        <v>1.1160</v>
+        <v>1.1149</v>
       </c>
       <c r="D161" t="str">
-        <v>1.1160</v>
+        <v>1.1149</v>
       </c>
       <c r="E161" t="str">
-        <v>7.72%</v>
+        <v>-0.10%</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2021-10-15</v>
+        <v>2021-10-22</v>
       </c>
       <c r="B162" t="str">
-        <v>1.0360</v>
+        <v>1.1160</v>
       </c>
       <c r="C162" t="str">
-        <v>1.0360</v>
+        <v>1.1160</v>
       </c>
       <c r="D162" t="str">
-        <v>1.0360</v>
+        <v>1.1160</v>
       </c>
       <c r="E162" t="str">
-        <v>5.32%</v>
+        <v>7.72%</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2021-10-08</v>
+        <v>2021-10-15</v>
       </c>
       <c r="B163" t="str">
-        <v>0.9837</v>
+        <v>1.0360</v>
       </c>
       <c r="C163" t="str">
-        <v>0.9837</v>
+        <v>1.0360</v>
       </c>
       <c r="D163" t="str">
-        <v>0.9837</v>
+        <v>1.0360</v>
       </c>
       <c r="E163" t="str">
-        <v>1.93%</v>
+        <v>5.32%</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2021-09-30</v>
+        <v>2021-10-08</v>
       </c>
       <c r="B164" t="str">
-        <v>0.9651</v>
+        <v>0.9837</v>
       </c>
       <c r="C164" t="str">
-        <v>0.9651</v>
+        <v>0.9837</v>
       </c>
       <c r="D164" t="str">
-        <v>0.9651</v>
+        <v>0.9837</v>
       </c>
       <c r="E164" t="str">
-        <v>-7.18%</v>
+        <v>1.93%</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2021-09-24</v>
+        <v>2021-09-30</v>
       </c>
       <c r="B165" t="str">
-        <v>1.0397</v>
+        <v>0.9651</v>
       </c>
       <c r="C165" t="str">
-        <v>1.0397</v>
+        <v>0.9651</v>
       </c>
       <c r="D165" t="str">
-        <v>1.0397</v>
+        <v>0.9651</v>
       </c>
       <c r="E165" t="str">
-        <v>-3.89%</v>
+        <v>-7.18%</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2021-09-17</v>
+        <v>2021-09-24</v>
       </c>
       <c r="B166" t="str">
-        <v>1.0818</v>
+        <v>1.0397</v>
       </c>
       <c r="C166" t="str">
-        <v>1.0818</v>
+        <v>1.0397</v>
       </c>
       <c r="D166" t="str">
-        <v>1.0818</v>
+        <v>1.0397</v>
       </c>
       <c r="E166" t="str">
-        <v>-2.80%</v>
+        <v>-3.89%</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2021-09-10</v>
+        <v>2021-09-17</v>
       </c>
       <c r="B167" t="str">
-        <v>1.1130</v>
+        <v>1.0818</v>
       </c>
       <c r="C167" t="str">
-        <v>1.1130</v>
+        <v>1.0818</v>
       </c>
       <c r="D167" t="str">
-        <v>1.1130</v>
+        <v>1.0818</v>
       </c>
       <c r="E167" t="str">
-        <v>-0.06%</v>
+        <v>-2.80%</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2021-09-03</v>
+        <v>2021-09-10</v>
       </c>
       <c r="B168" t="str">
-        <v>1.1137</v>
+        <v>1.1130</v>
       </c>
       <c r="C168" t="str">
-        <v>1.1137</v>
+        <v>1.1130</v>
       </c>
       <c r="D168" t="str">
-        <v>1.1137</v>
+        <v>1.1130</v>
       </c>
       <c r="E168" t="str">
-        <v>0.94%</v>
+        <v>-0.06%</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2021-08-27</v>
+        <v>2021-09-03</v>
       </c>
       <c r="B169" t="str">
-        <v>1.1033</v>
+        <v>1.1137</v>
       </c>
       <c r="C169" t="str">
-        <v>1.1033</v>
+        <v>1.1137</v>
       </c>
       <c r="D169" t="str">
-        <v>1.1033</v>
+        <v>1.1137</v>
       </c>
       <c r="E169" t="str">
-        <v>3.82%</v>
+        <v>0.94%</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2021-08-20</v>
+        <v>2021-08-27</v>
       </c>
       <c r="B170" t="str">
-        <v>1.0627</v>
+        <v>1.1033</v>
       </c>
       <c r="C170" t="str">
-        <v>1.0627</v>
+        <v>1.1033</v>
       </c>
       <c r="D170" t="str">
-        <v>1.0627</v>
+        <v>1.1033</v>
       </c>
       <c r="E170" t="str">
-        <v>-0.07%</v>
+        <v>3.82%</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2021-08-13</v>
+        <v>2021-08-20</v>
       </c>
       <c r="B171" t="str">
-        <v>1.0634</v>
+        <v>1.0627</v>
       </c>
       <c r="C171" t="str">
-        <v>1.0634</v>
+        <v>1.0627</v>
       </c>
       <c r="D171" t="str">
-        <v>1.0634</v>
+        <v>1.0627</v>
       </c>
       <c r="E171" t="str">
-        <v>-1.02%</v>
+        <v>-0.07%</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2021-08-06</v>
+        <v>2021-08-13</v>
       </c>
       <c r="B172" t="str">
-        <v>1.0744</v>
+        <v>1.0634</v>
       </c>
       <c r="C172" t="str">
-        <v>1.0744</v>
+        <v>1.0634</v>
       </c>
       <c r="D172" t="str">
-        <v>1.0744</v>
+        <v>1.0634</v>
       </c>
       <c r="E172" t="str">
-        <v>-1.24%</v>
+        <v>-1.02%</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2021-07-30</v>
+        <v>2021-08-06</v>
       </c>
       <c r="B173" t="str">
-        <v>1.0879</v>
+        <v>1.0744</v>
       </c>
       <c r="C173" t="str">
-        <v>1.0879</v>
+        <v>1.0744</v>
       </c>
       <c r="D173" t="str">
-        <v>1.0879</v>
+        <v>1.0744</v>
       </c>
       <c r="E173" t="str">
-        <v>-1.09%</v>
+        <v>-1.24%</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>2021-07-23</v>
+        <v>2021-07-30</v>
       </c>
       <c r="B174" t="str">
-        <v>1.0999</v>
+        <v>1.0879</v>
       </c>
       <c r="C174" t="str">
-        <v>1.0999</v>
+        <v>1.0879</v>
       </c>
       <c r="D174" t="str">
-        <v>1.0999</v>
+        <v>1.0879</v>
       </c>
       <c r="E174" t="str">
-        <v>-0.61%</v>
+        <v>-1.09%</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>2021-07-16</v>
+        <v>2021-07-23</v>
       </c>
       <c r="B175" t="str">
-        <v>1.1067</v>
+        <v>1.0999</v>
       </c>
       <c r="C175" t="str">
-        <v>1.1067</v>
+        <v>1.0999</v>
       </c>
       <c r="D175" t="str">
-        <v>1.1067</v>
+        <v>1.0999</v>
       </c>
       <c r="E175" t="str">
-        <v>1.35%</v>
+        <v>-0.61%</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>2021-07-09</v>
+        <v>2021-07-16</v>
       </c>
       <c r="B176" t="str">
-        <v>1.0920</v>
+        <v>1.1067</v>
       </c>
       <c r="C176" t="str">
-        <v>1.0920</v>
+        <v>1.1067</v>
       </c>
       <c r="D176" t="str">
-        <v>1.0920</v>
+        <v>1.1067</v>
       </c>
       <c r="E176" t="str">
-        <v>0.52%</v>
+        <v>1.35%</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>2021-07-02</v>
+        <v>2021-07-09</v>
       </c>
       <c r="B177" t="str">
-        <v>1.0864</v>
+        <v>1.0920</v>
       </c>
       <c r="C177" t="str">
-        <v>1.0864</v>
+        <v>1.0920</v>
       </c>
       <c r="D177" t="str">
-        <v>1.0864</v>
+        <v>1.0920</v>
       </c>
       <c r="E177" t="str">
-        <v>0.96%</v>
+        <v>0.52%</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>2021-06-25</v>
+        <v>2021-07-02</v>
       </c>
       <c r="B178" t="str">
-        <v>1.0761</v>
+        <v>1.0864</v>
       </c>
       <c r="C178" t="str">
-        <v>1.0761</v>
+        <v>1.0864</v>
       </c>
       <c r="D178" t="str">
-        <v>1.0761</v>
+        <v>1.0864</v>
       </c>
       <c r="E178" t="str">
-        <v>1.89%</v>
+        <v>0.96%</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>2021-06-18</v>
+        <v>2021-06-25</v>
       </c>
       <c r="B179" t="str">
-        <v>1.0561</v>
+        <v>1.0761</v>
       </c>
       <c r="C179" t="str">
-        <v>1.0561</v>
+        <v>1.0761</v>
       </c>
       <c r="D179" t="str">
-        <v>1.0561</v>
+        <v>1.0761</v>
       </c>
       <c r="E179" t="str">
-        <v>-0.39%</v>
+        <v>1.89%</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>2021-06-11</v>
+        <v>2021-06-18</v>
       </c>
       <c r="B180" t="str">
-        <v>1.0602</v>
+        <v>1.0561</v>
       </c>
       <c r="C180" t="str">
-        <v>1.0602</v>
+        <v>1.0561</v>
       </c>
       <c r="D180" t="str">
-        <v>1.0602</v>
+        <v>1.0561</v>
       </c>
       <c r="E180" t="str">
-        <v>0.40%</v>
+        <v>-0.39%</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>2021-06-04</v>
+        <v>2021-06-11</v>
       </c>
       <c r="B181" t="str">
-        <v>1.0560</v>
+        <v>1.0602</v>
       </c>
       <c r="C181" t="str">
-        <v>1.0560</v>
+        <v>1.0602</v>
       </c>
       <c r="D181" t="str">
-        <v>1.0560</v>
+        <v>1.0602</v>
       </c>
       <c r="E181" t="str">
-        <v>2.92%</v>
+        <v>0.40%</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>2021-05-28</v>
+        <v>2021-06-04</v>
       </c>
       <c r="B182" t="str">
-        <v>1.0260</v>
+        <v>1.0560</v>
       </c>
       <c r="C182" t="str">
-        <v>1.0260</v>
+        <v>1.0560</v>
       </c>
       <c r="D182" t="str">
-        <v>1.0260</v>
+        <v>1.0560</v>
       </c>
       <c r="E182" t="str">
-        <v>-0.79%</v>
+        <v>2.92%</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>2021-05-21</v>
+        <v>2021-05-28</v>
       </c>
       <c r="B183" t="str">
-        <v>1.0342</v>
+        <v>1.0260</v>
       </c>
       <c r="C183" t="str">
-        <v>1.0342</v>
+        <v>1.0260</v>
       </c>
       <c r="D183" t="str">
-        <v>1.0342</v>
+        <v>1.0260</v>
       </c>
       <c r="E183" t="str">
-        <v>1.01%</v>
+        <v>-0.79%</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>2021-05-14</v>
+        <v>2021-05-21</v>
       </c>
       <c r="B184" t="str">
-        <v>1.0239</v>
+        <v>1.0342</v>
       </c>
       <c r="C184" t="str">
-        <v>1.0239</v>
+        <v>1.0342</v>
       </c>
       <c r="D184" t="str">
-        <v>1.0239</v>
+        <v>1.0342</v>
       </c>
       <c r="E184" t="str">
-        <v>2.85%</v>
+        <v>1.01%</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>2021-05-07</v>
+        <v>2021-05-14</v>
       </c>
       <c r="B185" t="str">
-        <v>0.9955</v>
+        <v>1.0239</v>
       </c>
       <c r="C185" t="str">
-        <v>0.9955</v>
+        <v>1.0239</v>
       </c>
       <c r="D185" t="str">
-        <v>0.9955</v>
+        <v>1.0239</v>
       </c>
       <c r="E185" t="str">
-        <v>-0.42%</v>
+        <v>2.85%</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>2021-04-30</v>
+        <v>2021-05-07</v>
       </c>
       <c r="B186" t="str">
-        <v>0.9997</v>
+        <v>0.9955</v>
       </c>
       <c r="C186" t="str">
-        <v>0.9997</v>
+        <v>0.9955</v>
       </c>
       <c r="D186" t="str">
-        <v>0.9997</v>
+        <v>0.9955</v>
       </c>
       <c r="E186" t="str">
-        <v>-0.02%</v>
+        <v>-0.42%</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>2021-04-23</v>
+        <v>2021-04-30</v>
       </c>
       <c r="B187" t="str">
-        <v>0.9999</v>
+        <v>0.9997</v>
       </c>
       <c r="C187" t="str">
-        <v>0.9999</v>
+        <v>0.9997</v>
       </c>
       <c r="D187" t="str">
-        <v>0.9999</v>
+        <v>0.9997</v>
       </c>
       <c r="E187" t="str">
-        <v>-0.01%</v>
+        <v>-0.02%</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>2021-04-16</v>
+        <v>2021-04-23</v>
       </c>
       <c r="B188" t="str">
-        <v>1.0000</v>
+        <v>0.9999</v>
       </c>
       <c r="C188" t="str">
-        <v>1.0000</v>
+        <v>0.9999</v>
       </c>
       <c r="D188" t="str">
-        <v>1.0000</v>
+        <v>0.9999</v>
       </c>
       <c r="E188" t="str">
-        <v>0.00%</v>
+        <v>-0.01%</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>2021-04-14</v>
+        <v>2021-04-16</v>
       </c>
       <c r="B189" t="str">
         <v>1.0000</v>
@@ -3590,12 +3590,29 @@
         <v>1.0000</v>
       </c>
       <c r="E189" t="str">
+        <v>0.00%</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>2021-04-14</v>
+      </c>
+      <c r="B190" t="str">
+        <v>1.0000</v>
+      </c>
+      <c r="C190" t="str">
+        <v>1.0000</v>
+      </c>
+      <c r="D190" t="str">
+        <v>1.0000</v>
+      </c>
+      <c r="E190" t="str">
         <v>--</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E189"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E190"/>
   </ignoredErrors>
 </worksheet>
 </file>